--- a/CONG NO/CONG NO 2016/KEO CONT NOI DIA - 2018.xlsx
+++ b/CONG NO/CONG NO 2016/KEO CONT NOI DIA - 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="165" windowWidth="15000" windowHeight="6405" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="165" windowWidth="15000" windowHeight="6405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TH - 2017" sheetId="5" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0\ ;&quot; (&quot;#,##0\);&quot; -&quot;#\ ;@\ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +397,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -548,7 +554,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -757,6 +763,21 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,19 +790,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1105,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1182,12 +1192,11 @@
       <c r="B4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="69">
-        <f>61600000+6160000</f>
-        <v>67760000</v>
-      </c>
-      <c r="D4" s="69">
-        <v>18315000</v>
+      <c r="C4" s="90">
+        <v>71610000</v>
+      </c>
+      <c r="D4" s="90">
+        <v>19440000</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="69"/>
@@ -1409,11 +1418,11 @@
       <c r="B14" s="78"/>
       <c r="C14" s="71">
         <f>SUM(C3:C13)</f>
-        <v>1320990000</v>
+        <v>1324840000</v>
       </c>
       <c r="D14" s="71">
         <f>SUM(D3:D13)</f>
-        <v>343955000</v>
+        <v>345080000</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71">
@@ -1432,7 +1441,7 @@
       </c>
       <c r="D17" s="73">
         <f>D14-F14</f>
-        <v>283955000</v>
+        <v>285080000</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,7 +1450,7 @@
       </c>
       <c r="D18" s="73">
         <f>C14-H14</f>
-        <v>263910000</v>
+        <v>267760000</v>
       </c>
     </row>
   </sheetData>
@@ -1465,8 +1474,8 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1527,17 +1536,27 @@
         <v>69</v>
       </c>
       <c r="C3" s="68">
-        <v>1320990000</v>
+        <f>'TH - 2017'!C14</f>
+        <v>1324840000</v>
       </c>
       <c r="D3" s="68">
-        <v>343955000</v>
-      </c>
-      <c r="E3" s="72"/>
+        <f>'TH - 2017'!D14</f>
+        <v>345080000</v>
+      </c>
+      <c r="E3" s="68">
+        <f>'TH - 2017'!E14</f>
+        <v>0</v>
+      </c>
       <c r="F3" s="68">
+        <f>'TH - 2017'!F14</f>
         <v>60000000</v>
       </c>
-      <c r="G3" s="72"/>
+      <c r="G3" s="68">
+        <f>'TH - 2017'!G14</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="68">
+        <f>'TH - 2017'!H14</f>
         <v>1057080000</v>
       </c>
     </row>
@@ -1553,7 +1572,7 @@
         <v>32340000</v>
       </c>
       <c r="D4" s="69">
-        <v>8800000</v>
+        <v>8540000</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="69"/>
@@ -1692,11 +1711,11 @@
       <c r="B14" s="78"/>
       <c r="C14" s="71">
         <f>SUM(C3:C13)</f>
-        <v>1374120000</v>
+        <v>1377970000</v>
       </c>
       <c r="D14" s="71">
         <f>SUM(D3:D13)</f>
-        <v>357775000</v>
+        <v>358640000</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71">
@@ -1715,7 +1734,7 @@
       </c>
       <c r="D17" s="73">
         <f>D14-F14</f>
-        <v>0</v>
+        <v>865000</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,7 +1743,7 @@
       </c>
       <c r="D18" s="73">
         <f>C14-H14</f>
-        <v>210870000</v>
+        <v>214720000</v>
       </c>
     </row>
   </sheetData>
@@ -1748,8 +1767,8 @@
   </sheetPr>
   <dimension ref="A1:IQ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1853,13 +1872,13 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:14" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1909,10 +1928,10 @@
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="15" t="s">
         <v>5</v>
       </c>
@@ -1939,10 +1958,10 @@
       <c r="B10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1967,10 +1986,10 @@
       <c r="B11" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1995,10 +2014,10 @@
       <c r="B12" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2023,10 +2042,10 @@
       <c r="B13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2051,10 +2070,10 @@
       <c r="B14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2079,10 +2098,10 @@
       <c r="B15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="85"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2115,7 @@
       <c r="I15" s="2">
         <v>450000</v>
       </c>
-      <c r="J15" s="82">
+      <c r="J15" s="87">
         <v>1020000</v>
       </c>
     </row>
@@ -2107,10 +2126,10 @@
       <c r="B16" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2121,10 +2140,10 @@
       <c r="H16" s="20">
         <v>3500000</v>
       </c>
-      <c r="I16" s="2">
-        <v>600000</v>
-      </c>
-      <c r="J16" s="83"/>
+      <c r="I16" s="89">
+        <v>340000</v>
+      </c>
+      <c r="J16" s="88"/>
       <c r="K16" t="s">
         <v>37</v>
       </c>
@@ -2136,10 +2155,10 @@
       <c r="B17" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2164,10 +2183,10 @@
       <c r="B18" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
@@ -2186,12 +2205,12 @@
       </c>
     </row>
     <row r="19" spans="1:251" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21">
         <f>SUM(F10:F18)</f>
@@ -2207,7 +2226,7 @@
       </c>
       <c r="I19" s="21">
         <f>SUM(I10:I18)</f>
-        <v>4310000</v>
+        <v>4050000</v>
       </c>
       <c r="J19" s="21">
         <f>SUM(J10:J18)</f>
@@ -2464,7 +2483,7 @@
       <c r="D20" s="26"/>
       <c r="E20" s="27">
         <f>I19+J19</f>
-        <v>8800000</v>
+        <v>8540000</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -3238,7 +3257,7 @@
       <c r="D23" s="34"/>
       <c r="E23" s="35">
         <f>E20+E21+E22</f>
-        <v>41140000</v>
+        <v>40880000</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
@@ -3749,7 +3768,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="40">
         <f>E23</f>
-        <v>41140000</v>
+        <v>40880000</v>
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="26"/>
@@ -5277,11 +5296,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="J15:J16"/>
@@ -5291,6 +5305,11 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.23" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5409,13 +5428,13 @@
       <c r="N5" s="7"/>
     </row>
     <row r="6" spans="1:251" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -5465,10 +5484,10 @@
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="15" t="s">
         <v>5</v>
       </c>
@@ -5493,8 +5512,8 @@
       <c r="B10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
@@ -5517,10 +5536,10 @@
       <c r="B11" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
@@ -5545,10 +5564,10 @@
       <c r="B12" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="84" t="s">
+      <c r="C12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
@@ -5573,10 +5592,10 @@
       <c r="B13" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="85"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
@@ -5601,10 +5620,10 @@
       <c r="B14" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
@@ -5629,10 +5648,10 @@
       <c r="B15" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="85"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
@@ -5651,12 +5670,12 @@
       </c>
     </row>
     <row r="16" spans="1:251" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21">
         <f>SUM(F11:F15)</f>
